--- a/biology/Botanique/Mercuriale_vivace/Mercuriale_vivace.xlsx
+++ b/biology/Botanique/Mercuriale_vivace/Mercuriale_vivace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mercurialis perennis
 La Mercuriale vivace, Mercuriale pérenne, Chou de chien ou Cynocrambe (Mercurialis perennis L.), est une espèce de plantes à fleurs de la famille des Euphorbiaceae. C'est une plante herbacée des lieux plutôt frais sur sols alcalino-calcaires.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De Mercure, le dieu qui découvrit les propriétés médicinales des mercuriales et du latin ; perennis : pérenne.
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est haute de 20 à 40 cm. Les feuilles, présentes seulement dans le haut de la tige, sont opposées, longues de 4 à 12 cm, les supérieures plus grandes que les inférieures, et sont de forme ovale-lancéolée, pointues, à petites dents, attachées à la tige par un court pétiole de maximum 5 mm[1].
-Les fleurs femelles sont solitaires, formées d'un stigmate à deux lobes, sur un pédoncule axillaire, partant de l'aisselle d'une feuille. Les fleurs mâles, espacées sur un petit épi[1], sont sans pétales, et s'ouvrent en trois tépales qui révèlent 8 à 15 étamines[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est haute de 20 à 40 cm. Les feuilles, présentes seulement dans le haut de la tige, sont opposées, longues de 4 à 12 cm, les supérieures plus grandes que les inférieures, et sont de forme ovale-lancéolée, pointues, à petites dents, attachées à la tige par un court pétiole de maximum 5 mm.
+Les fleurs femelles sont solitaires, formées d'un stigmate à deux lobes, sur un pédoncule axillaire, partant de l'aisselle d'une feuille. Les fleurs mâles, espacées sur un petit épi, sont sans pétales, et s'ouvrent en trois tépales qui révèlent 8 à 15 étamines.
 </t>
         </is>
       </c>
@@ -577,16 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reproduction
-On trouve des plants mâles et des plants femelles (plante dioïque). Les plants femelles se reconnaissent à l'absence d'inflorescence visible au dessus des feuilles, les fleurs femelles étant beaucoup plus discrètes[2].
-Floraison
-Ses fleurs verdâtres et discrètes apparaissent d'avril à juin. 
-Habitat
-Elle se développe à l'ombre des arbres à feuilles caduques des régions tempérées d'Europe, en particulier dans les hêtraies, et les forêts mixtes[1]. Elle forme grâce à ses rhizomes souterrains de vastes colonies en sous-bois (plante sociale).
-Relations interspécifiques
-Les feuilles de la mercuriale vivace sont la nourriture de plusieurs insectes[3],[4], notamment d'un petit coléoptère, Hermaeophaga mercurialis. Les larves se développent dans les racines de plantes du genre Mercurialis. L'adulte bleu-noir, de 2.3-3 mm de long, se nourrit des feuilles de Mercurialis perennis, où on remarque facilement des petits trous[5].
-La chenille d'une noctuelle, la Méticuleuse (Phlogophora meticulosa) consomme également cette plante, parmi d'autres[6].
-Plusieurs champignons peuvent vivre aux dépens de la plante: des champignon de type rouille, l'un du genre Melampsora, Melampsora rostrupii G. H. Wagner ex Kleb (également appelé Caeoma mercurialis  Link), trouvé sur la face inférieure des feuilles dans le Jura souabe[7], et un autre appelé Ramularia mercurialis-perennis Roum., du genre Ramularia, anamorphe de Mycosphaerella[8]. 
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve des plants mâles et des plants femelles (plante dioïque). Les plants femelles se reconnaissent à l'absence d'inflorescence visible au dessus des feuilles, les fleurs femelles étant beaucoup plus discrètes.
 </t>
         </is>
       </c>
@@ -612,12 +625,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Écologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est une plante d'Europe, rencontrée de la Méditerranée à la Grande-Bretagne, à la Scandinavie et à l'Ouest de la Russie, ainsi qu'en Algérie, et en Asie du Sud-ouest (Turquie, Iran, Azerbaïdjan, Arménie, Géorgie)[9]. 
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fleurs verdâtres et discrètes apparaissent d'avril à juin. 
 </t>
         </is>
       </c>
@@ -643,10 +662,121 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se développe à l'ombre des arbres à feuilles caduques des régions tempérées d'Europe, en particulier dans les hêtraies, et les forêts mixtes. Elle forme grâce à ses rhizomes souterrains de vastes colonies en sous-bois (plante sociale).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mercuriale_vivace</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mercuriale_vivace</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Relations interspécifiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de la mercuriale vivace sont la nourriture de plusieurs insectes notamment d'un petit coléoptère, Hermaeophaga mercurialis. Les larves se développent dans les racines de plantes du genre Mercurialis. L'adulte bleu-noir, de 2.3-3 mm de long, se nourrit des feuilles de Mercurialis perennis, où on remarque facilement des petits trous.
+La chenille d'une noctuelle, la Méticuleuse (Phlogophora meticulosa) consomme également cette plante, parmi d'autres.
+Plusieurs champignons peuvent vivre aux dépens de la plante: des champignon de type rouille, l'un du genre Melampsora, Melampsora rostrupii G. H. Wagner ex Kleb (également appelé Caeoma mercurialis  Link), trouvé sur la face inférieure des feuilles dans le Jura souabe, et un autre appelé Ramularia mercurialis-perennis Roum., du genre Ramularia, anamorphe de Mycosphaerella. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mercuriale_vivace</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mercuriale_vivace</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante d'Europe, rencontrée de la Méditerranée à la Grande-Bretagne, à la Scandinavie et à l'Ouest de la Russie, ainsi qu'en Algérie, et en Asie du Sud-ouest (Turquie, Iran, Azerbaïdjan, Arménie, Géorgie). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mercuriale_vivace</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mercuriale_vivace</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ensemble de la plante est un purgatif énergique, elle est vénéneuse pour les bêtes.
 </t>
